--- a/excel_files/review_info.xlsx
+++ b/excel_files/review_info.xlsx
@@ -462,7 +462,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:K4"/>
+  <dimension ref="A1:K15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -505,70 +505,158 @@
     </row>
     <row r="2" spans="1:11">
       <c r="A2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B2" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11">
+      <c r="A4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B4" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11">
+      <c r="A5" t="s">
+        <v>15</v>
+      </c>
+      <c r="B5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11">
+      <c r="A6" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11">
+      <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11">
+      <c r="A8" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11">
+      <c r="A9" t="s">
+        <v>19</v>
+      </c>
+      <c r="B9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11">
+      <c r="A10" t="s">
+        <v>20</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11">
+      <c r="A13" t="s">
         <v>23</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B13" t="s">
         <v>24</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C13" t="s">
         <v>24</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D13" t="s">
         <v>25</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E13" t="s">
         <v>24</v>
       </c>
-      <c r="F2" t="s">
+      <c r="F13" t="s">
         <v>24</v>
       </c>
-      <c r="G2" t="s">
+      <c r="G13" t="s">
         <v>26</v>
       </c>
-      <c r="H2" t="s">
+      <c r="H13" t="s">
         <v>24</v>
       </c>
-      <c r="I2" t="s">
+      <c r="I13" t="s">
         <v>27</v>
       </c>
-      <c r="J2" t="s">
+      <c r="J13" t="s">
         <v>28</v>
       </c>
-      <c r="K2" t="s">
+      <c r="K13" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:11">
-      <c r="G3" t="s">
+    <row r="14" spans="1:11">
+      <c r="G14" t="s">
         <v>30</v>
       </c>
-      <c r="H3" t="s">
+      <c r="H14" t="s">
         <v>31</v>
       </c>
-      <c r="I3" t="s">
+      <c r="I14" t="s">
         <v>32</v>
       </c>
-      <c r="J3" t="s">
+      <c r="J14" t="s">
         <v>33</v>
       </c>
-      <c r="K3" t="s">
+      <c r="K14" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="4" spans="1:11">
-      <c r="G4" t="s">
+    <row r="15" spans="1:11">
+      <c r="G15" t="s">
         <v>35</v>
       </c>
-      <c r="H4" t="s">
+      <c r="H15" t="s">
         <v>36</v>
       </c>
-      <c r="I4" t="s">
+      <c r="I15" t="s">
         <v>37</v>
       </c>
-      <c r="J4" t="s">
+      <c r="J15" t="s">
         <v>38</v>
       </c>
-      <c r="K4" t="s">
+      <c r="K15" t="s">
         <v>29</v>
       </c>
     </row>
